--- a/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
+++ b/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Project Info\Project Task 1\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C700EFDB-129B-419C-A71B-E028900874A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038057C-F6CC-4D45-AA54-F8B380E70C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="1" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="2" r:id="rId1"/>
-    <sheet name="Project Timeline" sheetId="1" r:id="rId2"/>
+    <sheet name="Task Allocations" sheetId="3" r:id="rId2"/>
+    <sheet name="Project Timeline" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Activity</t>
   </si>
@@ -73,6 +74,84 @@
   </si>
   <si>
     <t>van Tonder</t>
+  </si>
+  <si>
+    <t>Truter</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Coetzee</t>
+  </si>
+  <si>
+    <t>Danika</t>
+  </si>
+  <si>
+    <t>le Roux</t>
+  </si>
+  <si>
+    <t>Henk</t>
+  </si>
+  <si>
+    <t>Mooiman</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Cloete</t>
+  </si>
+  <si>
+    <t>Jean-luc</t>
+  </si>
+  <si>
+    <t>Maderi</t>
+  </si>
+  <si>
+    <t>de Meyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waldo </t>
+  </si>
+  <si>
+    <t>Nieman</t>
+  </si>
+  <si>
+    <t>Amount of days</t>
+  </si>
+  <si>
+    <t>Contigency Day(s)</t>
+  </si>
+  <si>
+    <t>Final End Date</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Most of the member's reflections were received on time. But also difficult as some members were on vacation or busy with work during the recess. But everyone managed to submit their reflections on time for compiling it all in one document.</t>
+  </si>
+  <si>
+    <t>We had a meeting and reviewed the document, especially the ethics and timeline of the project.</t>
+  </si>
+  <si>
+    <t>Group Task 1: Course work</t>
+  </si>
+  <si>
+    <t>Group Task 1: Documentation Draft</t>
+  </si>
+  <si>
+    <t>Group Task 3: Topological Network Design</t>
+  </si>
+  <si>
+    <t>TEAMS</t>
+  </si>
+  <si>
+    <t>Team 5</t>
   </si>
   <si>
     <r>
@@ -80,6 +159,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -89,41 +169,12 @@
     </r>
   </si>
   <si>
-    <t>Truter</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Coetzee</t>
-  </si>
-  <si>
-    <t>Danika</t>
-  </si>
-  <si>
-    <t>le Roux</t>
-  </si>
-  <si>
-    <t>Henk</t>
-  </si>
-  <si>
-    <t>Mooiman</t>
-  </si>
-  <si>
-    <t>Jacques</t>
-  </si>
-  <si>
-    <t>Cloete</t>
-  </si>
-  <si>
-    <t>Jean-luc</t>
-  </si>
-  <si>
     <r>
       <t>B</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
@@ -133,52 +184,46 @@
     </r>
   </si>
   <si>
-    <t>Maderi</t>
-  </si>
-  <si>
-    <t>de Meyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldo </t>
-  </si>
-  <si>
-    <t>Nieman</t>
-  </si>
-  <si>
-    <t>Group Leader</t>
-  </si>
-  <si>
-    <t>Takes Attendance</t>
-  </si>
-  <si>
-    <t>Amount of days</t>
-  </si>
-  <si>
-    <t>Contigency Day(s)</t>
-  </si>
-  <si>
-    <t>Final End Date</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Most of the member's reflections were received on time. But also difficult as some members were on vacation or busy with work during the recess. But everyone managed to submit their reflections on time for compiling it all in one document.</t>
-  </si>
-  <si>
-    <t>We had a meeting and reviewed the document, especially the ethics and timeline of the project.</t>
-  </si>
-  <si>
-    <t>Group Task 1: Course work</t>
-  </si>
-  <si>
-    <t>Group Task 1: Documentation Draft</t>
-  </si>
-  <si>
-    <t>Group Task 3: Topological Network Design</t>
+    <t>Team 1, Takes Attendance</t>
+  </si>
+  <si>
+    <t>Team 5, Group Leader</t>
+  </si>
+  <si>
+    <t>Team 1</t>
+  </si>
+  <si>
+    <t>Team 2</t>
+  </si>
+  <si>
+    <t>Team 3</t>
+  </si>
+  <si>
+    <t>Team 4</t>
+  </si>
+  <si>
+    <t>Packet Tracer Tasks</t>
+  </si>
+  <si>
+    <t>13 Offices</t>
+  </si>
+  <si>
+    <t>Technicians' Office</t>
+  </si>
+  <si>
+    <t>Reception/ Waiting Area</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Meeting Room/ Board Room</t>
+  </si>
+  <si>
+    <t>Machine Room/ Server Room</t>
+  </si>
+  <si>
+    <t>Open Floor Space</t>
   </si>
 </sst>
 </file>
@@ -186,21 +231,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -226,8 +265,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +330,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -380,23 +494,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -404,46 +704,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,9 +752,82 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,6 +836,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CCFF"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF66FF33"/>
     </mruColors>
   </colors>
@@ -797,153 +1172,169 @@
   <dimension ref="B1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="3">
+      <c r="B2" s="45">
         <v>41093615</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="47" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="39">
         <v>37328409</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="41" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="35">
         <v>38566567</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="39">
+        <v>40513262</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>40513262</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="42">
+        <v>41049764</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <v>41049764</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="48">
+        <v>41293584</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <v>41293584</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="42">
+        <v>44214987</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <v>44214987</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="45">
+        <v>40779173</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>40779173</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="35">
+        <v>40977676</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>40977676</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="51">
+        <v>37943278</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="4">
-        <v>37943278</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="53" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -951,11 +1342,207 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51FFFF2-7385-4101-8AFD-263F9F342918}">
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="2"/>
+      <c r="C1" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="28">
+        <v>2</v>
+      </c>
+      <c r="E2" s="32">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34">
+        <v>4</v>
+      </c>
+      <c r="G2" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="61"/>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="67"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="67"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="67"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="67"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="67"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="67"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="67"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="67"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E8D5A-520A-4364-BA44-E64C83C24A8A}">
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -971,262 +1558,262 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="B3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="16">
         <v>45355</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="17">
         <v>45376</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="18">
         <f>_xlfn.DAYS(D3,C3)</f>
         <v>21</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="19">
         <f>(E3*1.2)-E3</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="8">
         <f>D3+F3</f>
         <v>45380.2</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="9">
         <v>45380</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>35</v>
+      <c r="I3" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8">
         <f>G3</f>
         <v>45380.2</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="9">
         <v>45390</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>36</v>
+      <c r="I4" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="6">
         <v>45387</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="7">
         <v>45398</v>
       </c>
-      <c r="E5" s="23">
-        <f t="shared" ref="E4:E13" si="0">_xlfn.DAYS(D5,C5)</f>
+      <c r="E5" s="18">
+        <f t="shared" ref="E5:E13" si="0">_xlfn.DAYS(D5,C5)</f>
         <v>11</v>
       </c>
-      <c r="F5" s="24">
-        <f t="shared" ref="F4:F13" si="1">(E5*1.2)-E5</f>
+      <c r="F5" s="19">
+        <f t="shared" ref="F5:F13" si="1">(E5*1.2)-E5</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="G5" s="13">
-        <f t="shared" ref="G4:G13" si="2">D5+F5</f>
+      <c r="G5" s="8">
+        <f t="shared" ref="G5:G13" si="2">D5+F5</f>
         <v>45400.2</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="14">
         <v>45401</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="23">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="23">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="23">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="23">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="23">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="23">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="23">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="26">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
+++ b/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Project Info\Project Task 1\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038057C-F6CC-4D45-AA54-F8B380E70C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E41A3-B281-4025-BC7F-B2E937E2036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="1" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="2" r:id="rId1"/>
@@ -693,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -755,7 +755,6 @@
     <xf numFmtId="1" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -764,12 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +805,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -821,13 +814,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,156 +1218,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="45">
+      <c r="B2" s="42">
         <v>41093615</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="39">
+      <c r="B3" s="36">
         <v>37328409</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="38" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="35">
+      <c r="B4" s="32">
         <v>38566567</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <v>40513262</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="42">
+      <c r="B6" s="39">
         <v>41049764</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="41" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="48">
+      <c r="B7" s="45">
         <v>41293584</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="47" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="42">
+      <c r="B8" s="39">
         <v>44214987</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="45">
+      <c r="B9" s="42">
         <v>40779173</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="44" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
+      <c r="B10" s="32">
         <v>40977676</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="34" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="51">
+      <c r="B11" s="48">
         <v>37943278</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="50" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1345,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A51FFFF2-7385-4101-8AFD-263F9F342918}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1359,175 +1394,135 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="27">
         <v>2</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="29">
         <v>3</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>4</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="62"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="57"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="58"/>
     </row>
     <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="66"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
     </row>
     <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="67"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="B11" s="64"/>
     </row>
     <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="67"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="64"/>
     </row>
     <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="67"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
+      <c r="B13" s="64"/>
     </row>
     <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="67"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
+      <c r="B14" s="64"/>
     </row>
     <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="67"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="B15" s="64"/>
     </row>
     <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="67"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="67"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="67"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="B16" s="64"/>
+    </row>
+    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="64"/>
+    </row>
+    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1539,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E8D5A-520A-4364-BA44-E64C83C24A8A}">
-  <dimension ref="B1:I13"/>
+  <dimension ref="B1:I7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1598,11 +1593,11 @@
         <f>(E3*1.2)-E3</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="72">
         <f>D3+F3</f>
         <v>45380.2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="73">
         <v>45380</v>
       </c>
       <c r="I3" s="20" t="s">
@@ -1613,16 +1608,16 @@
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="8">
@@ -1632,11 +1627,11 @@
       <c r="H4" s="9">
         <v>45390</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1646,174 +1641,66 @@
       <c r="D5" s="7">
         <v>45398</v>
       </c>
-      <c r="E5" s="18">
-        <f t="shared" ref="E5:E13" si="0">_xlfn.DAYS(D5,C5)</f>
+      <c r="E5" s="69">
+        <f t="shared" ref="E5:E7" si="0">_xlfn.DAYS(D5,C5)</f>
         <v>11</v>
       </c>
-      <c r="F5" s="19">
-        <f t="shared" ref="F5:F13" si="1">(E5*1.2)-E5</f>
+      <c r="F5" s="70">
+        <f t="shared" ref="F5:F7" si="1">(E5*1.2)-E5</f>
         <v>2.1999999999999993</v>
       </c>
-      <c r="G5" s="8">
-        <f t="shared" ref="G5:G13" si="2">D5+F5</f>
+      <c r="G5" s="77">
+        <f t="shared" ref="G5:G7" si="2">D5+F5</f>
         <v>45400.2</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="78">
         <v>45401</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="18">
+      <c r="C6" s="74">
+        <v>45404</v>
+      </c>
+      <c r="D6" s="75">
+        <v>45423</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000007</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="2"/>
+        <v>45426.8</v>
+      </c>
+      <c r="H6" s="9">
+        <v>45428</v>
+      </c>
+      <c r="I6" s="76"/>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F7" s="80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
+++ b/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Project Info\Project Task 1\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E41A3-B281-4025-BC7F-B2E937E2036C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33989351-288B-405C-90C6-3060D4B55891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="2" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="2" r:id="rId1"/>
@@ -37,6 +37,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>christian coetzee</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{02DDC38E-D87D-4A29-9EC4-AECF928E9128}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+was 5</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
@@ -233,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +344,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -821,47 +868,47 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,14 +1257,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="42">
         <v>41093615</v>
       </c>
@@ -1245,7 +1292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="36">
         <v>37328409</v>
       </c>
@@ -1259,7 +1306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="32">
         <v>38566567</v>
       </c>
@@ -1273,7 +1320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="36">
         <v>40513262</v>
       </c>
@@ -1287,7 +1334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="39">
         <v>41049764</v>
       </c>
@@ -1301,7 +1348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="45">
         <v>41293584</v>
       </c>
@@ -1315,7 +1362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="39">
         <v>44214987</v>
       </c>
@@ -1329,7 +1376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="42">
         <v>40779173</v>
       </c>
@@ -1343,7 +1390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="32">
         <v>40977676</v>
       </c>
@@ -1357,7 +1404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="48">
         <v>37943278</v>
       </c>
@@ -1384,25 +1431,24 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.21875" customWidth="1"/>
-    <col min="3" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="9" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>47</v>
       </c>
@@ -1432,7 +1478,7 @@
       <c r="F3" s="57"/>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1488,7 @@
       <c r="F4" s="56"/>
       <c r="G4" s="54"/>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
         <v>49</v>
       </c>
@@ -1452,7 +1498,7 @@
       <c r="F5" s="56"/>
       <c r="G5" s="58"/>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
         <v>50</v>
       </c>
@@ -1462,7 +1508,7 @@
       <c r="F6" s="53"/>
       <c r="G6" s="58"/>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>51</v>
       </c>
@@ -1472,7 +1518,7 @@
       <c r="F7" s="53"/>
       <c r="G7" s="58"/>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
         <v>52</v>
       </c>
@@ -1482,7 +1528,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="58"/>
     </row>
-    <row r="9" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
@@ -1492,7 +1538,7 @@
       <c r="F9" s="61"/>
       <c r="G9" s="63"/>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -1500,28 +1546,28 @@
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="64"/>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="64"/>
     </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="64"/>
     </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="64"/>
     </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="64"/>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="64"/>
     </row>
-    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="64"/>
     </row>
-    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="64"/>
     </row>
   </sheetData>
@@ -1533,23 +1579,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E8D5A-520A-4364-BA44-E64C83C24A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E8D5A-520A-4364-BA44-E64C83C24A8A}">
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="8" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="52.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="8" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="52.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
@@ -1593,25 +1639,25 @@
         <f>(E3*1.2)-E3</f>
         <v>4.1999999999999993</v>
       </c>
-      <c r="G3" s="72">
+      <c r="G3" s="70">
         <f>D3+F3</f>
         <v>45380.2</v>
       </c>
-      <c r="H3" s="73">
+      <c r="H3" s="71">
         <v>45380</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="73" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="21" t="s">
@@ -1627,43 +1673,43 @@
       <c r="H4" s="9">
         <v>45390</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="74" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="6">
-        <v>45387</v>
+        <v>45393</v>
       </c>
       <c r="D5" s="7">
-        <v>45398</v>
-      </c>
-      <c r="E5" s="69">
+        <v>45402</v>
+      </c>
+      <c r="E5" s="67">
         <f t="shared" ref="E5:E7" si="0">_xlfn.DAYS(D5,C5)</f>
-        <v>11</v>
-      </c>
-      <c r="F5" s="70">
+        <v>9</v>
+      </c>
+      <c r="F5" s="68">
         <f t="shared" ref="F5:F7" si="1">(E5*1.2)-E5</f>
-        <v>2.1999999999999993</v>
-      </c>
-      <c r="G5" s="77">
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="G5" s="75">
         <f t="shared" ref="G5:G7" si="2">D5+F5</f>
-        <v>45400.2</v>
-      </c>
-      <c r="H5" s="78">
+        <v>45403.8</v>
+      </c>
+      <c r="H5" s="76">
         <v>45401</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
-      <c r="C6" s="74">
+      <c r="C6" s="72">
         <v>45404</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="73">
         <v>45423</v>
       </c>
       <c r="E6" s="21">
@@ -1681,21 +1727,21 @@
       <c r="H6" s="9">
         <v>45428</v>
       </c>
-      <c r="I6" s="76"/>
-    </row>
-    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" s="74"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="79">
+      <c r="E7" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1704,5 +1750,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
+++ b/Group project/Project Info/Project Task 1/Timeline/Roles_And_Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Project Info\Project Task 1\Timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33989351-288B-405C-90C6-3060D4B55891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FDEDA0-DBBA-4372-8548-C534EDA345F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="2" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4AE14EAC-EA21-49A7-B43B-E46003DDB86D}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Activity</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Open Floor Space</t>
+  </si>
+  <si>
+    <t>Group Task 4: Text Messagin App</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -910,6 +913,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1257,14 +1261,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="42">
         <v>41093615</v>
       </c>
@@ -1292,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="36">
         <v>37328409</v>
       </c>
@@ -1306,7 +1310,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="32">
         <v>38566567</v>
       </c>
@@ -1320,7 +1324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="36">
         <v>40513262</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="39">
         <v>41049764</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="45">
         <v>41293584</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="39">
         <v>44214987</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="42">
         <v>40779173</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="32">
         <v>40977676</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="48">
         <v>37943278</v>
       </c>
@@ -1431,14 +1435,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="9" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="2"/>
       <c r="C1" s="79" t="s">
         <v>36</v>
@@ -1448,7 +1452,7 @@
       <c r="F1" s="79"/>
       <c r="G1" s="80"/>
     </row>
-    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="28" t="s">
         <v>46</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
         <v>47</v>
       </c>
@@ -1478,7 +1482,7 @@
       <c r="F3" s="57"/>
       <c r="G3" s="59"/>
     </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="23" t="s">
         <v>48</v>
       </c>
@@ -1488,7 +1492,7 @@
       <c r="F4" s="56"/>
       <c r="G4" s="54"/>
     </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="23" t="s">
         <v>49</v>
       </c>
@@ -1498,7 +1502,7 @@
       <c r="F5" s="56"/>
       <c r="G5" s="58"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="23" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1512,7 @@
       <c r="F6" s="53"/>
       <c r="G6" s="58"/>
     </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="23" t="s">
         <v>51</v>
       </c>
@@ -1518,7 +1522,7 @@
       <c r="F7" s="53"/>
       <c r="G7" s="58"/>
     </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="23" t="s">
         <v>52</v>
       </c>
@@ -1528,7 +1532,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="58"/>
     </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>53</v>
       </c>
@@ -1538,7 +1542,7 @@
       <c r="F9" s="61"/>
       <c r="G9" s="63"/>
     </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="65"/>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -1546,28 +1550,28 @@
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
     </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="64"/>
     </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="64"/>
     </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="64"/>
     </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="64"/>
     </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="64"/>
     </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="64"/>
     </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="64"/>
     </row>
-    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="64"/>
     </row>
   </sheetData>
@@ -1580,22 +1584,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00E8D5A-520A-4364-BA44-E64C83C24A8A}">
-  <dimension ref="B1:I7"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="52.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="52.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="15" t="s">
         <v>33</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>35</v>
       </c>
@@ -1704,49 +1708,80 @@
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="72">
         <v>45404</v>
       </c>
       <c r="D6" s="73">
-        <v>45423</v>
+        <v>45419</v>
       </c>
       <c r="E6" s="21">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="1"/>
-        <v>3.8000000000000007</v>
+        <v>3</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>45426.8</v>
+        <v>45422</v>
       </c>
       <c r="H6" s="9">
         <v>45428</v>
       </c>
       <c r="I6" s="74"/>
     </row>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45419</v>
+      </c>
+      <c r="D7" s="12">
+        <v>45427</v>
+      </c>
       <c r="E7" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" s="78">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5999999999999996</v>
       </c>
       <c r="G7" s="69">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="14"/>
+        <v>45428.6</v>
+      </c>
+      <c r="H7" s="14">
+        <v>45428</v>
+      </c>
       <c r="I7" s="13"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>C3-H7</f>
+        <v>-73</v>
+      </c>
+      <c r="E10">
+        <f>C5-C3</f>
+        <v>38</v>
+      </c>
+      <c r="G10" s="81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>H7-C3</f>
+        <v>73</v>
+      </c>
+      <c r="E11">
+        <f>D6-C5</f>
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
